--- a/OnBoard/output/trust/catch/Catch_Trust_31.xlsx
+++ b/OnBoard/output/trust/catch/Catch_Trust_31.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K52"/>
+  <dimension ref="A1:K50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1799,7 +1799,7 @@
         </is>
       </c>
       <c r="G35">
-        <v>0.8179999999999999</v>
+        <v>0</v>
       </c>
       <c r="H35">
         <v>66</v>
@@ -1840,10 +1840,10 @@
         </is>
       </c>
       <c r="G36">
-        <v>3.146</v>
+        <v>0</v>
       </c>
       <c r="H36">
-        <v>296</v>
+        <v>-1</v>
       </c>
       <c r="I36">
         <v>217.4499</v>
@@ -1881,7 +1881,7 @@
         </is>
       </c>
       <c r="G37">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="H37">
         <v>5</v>
@@ -1922,7 +1922,7 @@
         </is>
       </c>
       <c r="G38">
-        <v>0.014</v>
+        <v>0</v>
       </c>
       <c r="H38">
         <v>4</v>
@@ -1963,7 +1963,7 @@
         </is>
       </c>
       <c r="G39">
-        <v>0.004</v>
+        <v>0</v>
       </c>
       <c r="H39">
         <v>2</v>
@@ -1995,19 +1995,19 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Biological discard</t>
+          <t>Diogenes pugilator</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>BIOLDIS</t>
+          <t>DIOGPUG</t>
         </is>
       </c>
       <c r="G40">
-        <v>0.186</v>
+        <v>0</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40">
         <v>217.4499</v>
@@ -2036,19 +2036,19 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Diogenes pugilator</t>
+          <t>Eunice vittata</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>DIOGPUG</t>
+          <t>EUNIVIT</t>
         </is>
       </c>
       <c r="G41">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I41">
         <v>217.4499</v>
@@ -2077,19 +2077,19 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Eunice vittata</t>
+          <t>Eunicidae nd</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>EUNIVIT</t>
+          <t>EUNIND</t>
         </is>
       </c>
       <c r="G42">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I42">
         <v>217.4499</v>
@@ -2118,16 +2118,16 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Eunicidae nd</t>
+          <t>Euspira macilenta</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>EUNIND</t>
+          <t>EUSPMAC</t>
         </is>
       </c>
       <c r="G43">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="H43">
         <v>1</v>
@@ -2159,19 +2159,19 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Euspira macilenta</t>
+          <t>Fustiaria rubescens</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>EUSPMAC</t>
+          <t>FUSTRUB</t>
         </is>
       </c>
       <c r="G44">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I44">
         <v>217.4499</v>
@@ -2200,19 +2200,19 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Fustiaria rubescens</t>
+          <t>Modiolus barbatus</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>FUSTRUB</t>
+          <t>MODIBAR</t>
         </is>
       </c>
       <c r="G45">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I45">
         <v>217.4499</v>
@@ -2241,19 +2241,19 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Modiolus barbatus</t>
+          <t>Owenia fusiformis</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>MODIBAR</t>
+          <t>OWENFUS</t>
         </is>
       </c>
       <c r="G46">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H46">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I46">
         <v>217.4499</v>
@@ -2282,16 +2282,16 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Owenia fusiformis</t>
+          <t>Sabellidae sp</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>OWENFUS</t>
+          <t>SABESPP</t>
         </is>
       </c>
       <c r="G47">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="H47">
         <v>1</v>
@@ -2323,16 +2323,16 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Sabellidae sp</t>
+          <t>Sipunculidae nd</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>SABESPP</t>
+          <t>SIPUNND</t>
         </is>
       </c>
       <c r="G48">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="H48">
         <v>1</v>
@@ -2364,19 +2364,19 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Shells NA</t>
+          <t>Trachythyone tergestina</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>SHELLS</t>
+          <t>TRACTER</t>
         </is>
       </c>
       <c r="G49">
-        <v>4.625</v>
+        <v>0</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I49">
         <v>217.4499</v>
@@ -2405,103 +2405,21 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Sipunculidae nd</t>
+          <t>Venus spp</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>SIPUNND</t>
+          <t>VENUSPP</t>
         </is>
       </c>
       <c r="G50">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I50">
-        <v>217.4499</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>Trachythyone tergestina</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>TRACTER</t>
-        </is>
-      </c>
-      <c r="G51">
-        <v>0.001</v>
-      </c>
-      <c r="H51">
-        <v>1</v>
-      </c>
-      <c r="I51">
-        <v>217.4499</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>Venus spp</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>VENUSPP</t>
-        </is>
-      </c>
-      <c r="G52">
-        <v>0.002</v>
-      </c>
-      <c r="H52">
-        <v>2</v>
-      </c>
-      <c r="I52">
         <v>217.4499</v>
       </c>
     </row>
